--- a/GOA/GOA_2018_SS.xlsx
+++ b/GOA/GOA_2018_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE478335-2113-0844-8B7F-43A78417F686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0893009A-C687-474A-9DE0-D34B26CE2352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="10" xr2:uid="{075EC1A9-A118-934F-9672-DCD5B7DE9E6F}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="2" xr2:uid="{075EC1A9-A118-934F-9672-DCD5B7DE9E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="8" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7F6EB4-5D4F-BC45-969E-AE3CAB6A8489}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D070E12-05E4-2C43-8D2E-82B50EB451CB}">
   <dimension ref="A1:BE107"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2767,6 +2767,9 @@
       <c r="F51">
         <v>514</v>
       </c>
+      <c r="G51">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
@@ -2787,6 +2790,9 @@
       <c r="F52">
         <v>514</v>
       </c>
+      <c r="G52">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
@@ -2807,6 +2813,9 @@
       <c r="F53">
         <v>514</v>
       </c>
+      <c r="G53">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
@@ -2827,6 +2836,9 @@
       <c r="F54">
         <v>514</v>
       </c>
+      <c r="G54">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
@@ -2847,6 +2859,9 @@
       <c r="F55">
         <v>514</v>
       </c>
+      <c r="G55">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
@@ -2867,6 +2882,9 @@
       <c r="F56">
         <v>2469</v>
       </c>
+      <c r="G56">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
@@ -2887,6 +2905,9 @@
       <c r="F57">
         <v>2276</v>
       </c>
+      <c r="G57">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
@@ -2907,6 +2928,9 @@
       <c r="F58">
         <v>1697</v>
       </c>
+      <c r="G58">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
@@ -2927,6 +2951,9 @@
       <c r="F59">
         <v>1315</v>
       </c>
+      <c r="G59">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4" t="s">
@@ -2947,6 +2974,9 @@
       <c r="F60">
         <v>1886</v>
       </c>
+      <c r="G60">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
@@ -2967,6 +2997,9 @@
       <c r="F61">
         <v>1185</v>
       </c>
+      <c r="G61">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
@@ -2987,6 +3020,9 @@
       <c r="F62">
         <v>4477</v>
       </c>
+      <c r="G62">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4" t="s">
@@ -3007,6 +3043,9 @@
       <c r="F63">
         <v>10007</v>
       </c>
+      <c r="G63">
+        <v>0.70710680000000004</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4" t="s">
@@ -3027,8 +3066,11 @@
       <c r="F64">
         <v>4883</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
@@ -3047,8 +3089,11 @@
       <c r="F65">
         <v>2776</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
@@ -3067,8 +3112,11 @@
       <c r="F66">
         <v>3045</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
@@ -3087,8 +3135,11 @@
       <c r="F67">
         <v>9449</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
@@ -3107,8 +3158,11 @@
       <c r="F68">
         <v>8409</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -3127,8 +3181,11 @@
       <c r="F69">
         <v>7579</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -3147,8 +3204,11 @@
       <c r="F70">
         <v>7848</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3227,11 @@
       <c r="F71">
         <v>7433</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
@@ -3187,8 +3250,11 @@
       <c r="F72">
         <v>4639</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -3207,8 +3273,11 @@
       <c r="F73">
         <v>6331</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -3227,8 +3296,11 @@
       <c r="F74">
         <v>3457</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -3247,8 +3319,11 @@
       <c r="F75">
         <v>1539</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -3267,8 +3342,11 @@
       <c r="F76">
         <v>1221</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -3287,8 +3365,11 @@
       <c r="F77">
         <v>4963</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
         <v>75</v>
       </c>
@@ -3307,8 +3388,11 @@
       <c r="F78">
         <v>5138</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
@@ -3327,8 +3411,11 @@
       <c r="F79">
         <v>2584</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
@@ -3347,8 +3434,11 @@
       <c r="F80">
         <v>7706</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -3367,8 +3457,11 @@
       <c r="F81">
         <v>10034</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
@@ -3387,8 +3480,11 @@
       <c r="F82">
         <v>15970</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -3407,8 +3503,11 @@
       <c r="F83">
         <v>15559</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
         <v>75</v>
       </c>
@@ -3427,8 +3526,11 @@
       <c r="F84">
         <v>23560</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
         <v>75</v>
       </c>
@@ -3447,8 +3549,11 @@
       <c r="F85">
         <v>18428</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
         <v>75</v>
       </c>
@@ -3467,8 +3572,11 @@
       <c r="F86">
         <v>22583</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>75</v>
       </c>
@@ -3487,8 +3595,11 @@
       <c r="F87">
         <v>16319</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>75</v>
       </c>
@@ -3507,8 +3618,11 @@
       <c r="F88">
         <v>12975</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
         <v>75</v>
       </c>
@@ -3527,8 +3641,11 @@
       <c r="F89">
         <v>16207</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>75</v>
       </c>
@@ -3547,8 +3664,11 @@
       <c r="F90">
         <v>24252</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>75</v>
       </c>
@@ -3567,8 +3687,11 @@
       <c r="F91">
         <v>19964</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
         <v>75</v>
       </c>
@@ -3587,8 +3710,11 @@
       <c r="F92">
         <v>21231</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
         <v>75</v>
       </c>
@@ -3607,8 +3733,11 @@
       <c r="F93">
         <v>29994</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
         <v>75</v>
       </c>
@@ -3627,8 +3756,11 @@
       <c r="F94">
         <v>15304</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -3647,8 +3779,11 @@
       <c r="F95">
         <v>19770</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
         <v>75</v>
       </c>
@@ -3667,8 +3802,11 @@
       <c r="F96">
         <v>27653</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
         <v>75</v>
       </c>
@@ -3687,8 +3825,11 @@
       <c r="F97">
         <v>25494</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
         <v>75</v>
       </c>
@@ -3707,8 +3848,11 @@
       <c r="F98">
         <v>29293</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
         <v>75</v>
       </c>
@@ -3727,8 +3871,11 @@
       <c r="F99">
         <v>24937</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
         <v>75</v>
       </c>
@@ -3747,8 +3894,11 @@
       <c r="F100">
         <v>24094</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="4" t="s">
         <v>75</v>
       </c>
@@ -3767,8 +3917,11 @@
       <c r="F101">
         <v>31009</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
         <v>75</v>
       </c>
@@ -3787,8 +3940,11 @@
       <c r="F102">
         <v>20566</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +3963,11 @@
       <c r="F103">
         <v>21608</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
         <v>75</v>
       </c>
@@ -3827,8 +3986,11 @@
       <c r="F104">
         <v>36294</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
         <v>75</v>
       </c>
@@ -3847,8 +4009,11 @@
       <c r="F105">
         <v>19055</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
         <v>75</v>
       </c>
@@ -3867,8 +4032,11 @@
       <c r="F106">
         <v>19830</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
         <v>75</v>
       </c>
@@ -3886,6 +4054,9 @@
       </c>
       <c r="F107">
         <v>20283</v>
+      </c>
+      <c r="G107">
+        <v>0.70710680000000004</v>
       </c>
     </row>
   </sheetData>

--- a/GOA/GOA_2018_SS.xlsx
+++ b/GOA/GOA_2018_SS.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0893009A-C687-474A-9DE0-D34B26CE2352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3639A9A-01E0-2D42-AE21-B96F4E18CC8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="2" xr2:uid="{075EC1A9-A118-934F-9672-DCD5B7DE9E6F}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="6" xr2:uid="{075EC1A9-A118-934F-9672-DCD5B7DE9E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="8" r:id="rId1"/>
     <sheet name="fsh_control" sheetId="2" r:id="rId2"/>
     <sheet name="fsh_biom" sheetId="3" r:id="rId3"/>
     <sheet name="fsh_comp" sheetId="4" r:id="rId4"/>
-    <sheet name="srv_control" sheetId="1" r:id="rId5"/>
-    <sheet name="srv_biom" sheetId="5" r:id="rId6"/>
-    <sheet name="srv_comp" sheetId="6" r:id="rId7"/>
-    <sheet name="wt" sheetId="7" r:id="rId8"/>
-    <sheet name="age_error" sheetId="9" r:id="rId9"/>
-    <sheet name="alk" sheetId="10" r:id="rId10"/>
-    <sheet name="pmature" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId5"/>
+    <sheet name="srv_control" sheetId="1" r:id="rId6"/>
+    <sheet name="srv_biom" sheetId="5" r:id="rId7"/>
+    <sheet name="srv_comp" sheetId="6" r:id="rId8"/>
+    <sheet name="wt" sheetId="7" r:id="rId9"/>
+    <sheet name="age_error" sheetId="9" r:id="rId10"/>
+    <sheet name="alk" sheetId="10" r:id="rId11"/>
+    <sheet name="pmature" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1115,6 +1116,2016 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25C60F-7F84-6C48-8447-43A4AE21E2B1}">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.99696820024555399</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3.0317997544458963E-3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1.3806249742478682E-2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.97238750051504264</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1.3806249723033459E-2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1.9445223209402229E-11</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.7038104137577752E-8</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3.2906405296987642E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.93418715532981644</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3.2906405296987629E-2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1.703810414976914E-8</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.4293123082035601E-15</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.0783561449485444E-6</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5.7122751520844117E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.88575234024601901</v>
+      </c>
+      <c r="G5" s="18">
+        <v>5.7122751520844117E-2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.0783561449345669E-6</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.7414966004332085E-22</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2.2895550578474101E-12</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.6563697422036382E-5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>8.3222467499376673E-2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.83352193760182347</v>
+      </c>
+      <c r="H6" s="18">
+        <v>8.3222467499376673E-2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.6563697422089518E-5</v>
+      </c>
+      <c r="J6" s="18">
+        <v>2.2895019213819978E-12</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18">
+        <v>7.9187390152442501E-29</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3.4331362003500236E-18</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3.7519453381043917E-10</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.1079032809813635E-4</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.10904759415277265</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.78168323028786935</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.10904759415277265</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1.107903280981315E-4</v>
+      </c>
+      <c r="K7" s="18">
+        <v>3.7519454210155345E-10</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.6300596910444192E-34</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9.4520657596956716E-24</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4.2076735574279815E-15</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.4808271057363774E-8</v>
+      </c>
+      <c r="G8" s="18">
+        <v>4.401581642135076E-4</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.13333150336982325</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.73245633958650203</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.13333165385556311</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.4016154260895224E-4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.4808576920266603E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.4197252835086471E-39</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6.6985971188061639E-29</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5.5800559966529293E-20</v>
+      </c>
+      <c r="F9" s="18">
+        <v>8.3314483580522647E-13</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2.29405294026917E-7</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.2401887785961413E-3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.15535344822380437</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.68681225144890989</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.15535344822380437</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.240426051740684E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4.5096179253662556E-44</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1.3173304091861695E-33</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1.2850755899224239E-24</v>
+      </c>
+      <c r="F10" s="18">
+        <v>4.2232365069290137E-17</v>
+      </c>
+      <c r="G10" s="18">
+        <v>4.7452560992948221E-11</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.8739030122003168E-6</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2.7587661774380878E-3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.17472798018746982</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.64502275931685227</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.17748862034157387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4.4416417156480672E-48</v>
+      </c>
+      <c r="D11" s="18">
+        <v>6.9426832049025709E-38</v>
+      </c>
+      <c r="E11" s="18">
+        <v>5.9634886608778509E-29</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2.8305109681876611E-21</v>
+      </c>
+      <c r="G11" s="18">
+        <v>7.4879711790214834E-15</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.1201308022964087E-9</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9.7304269226302925E-6</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5.1851862693219619E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.19130423882354775</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.8035008433600439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.8276</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.1331</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.7329</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.1331</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="4">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.1724</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.6502</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.1724</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.2019</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.2019</v>
+      </c>
+      <c r="J27" s="4">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.76E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2.76E-2</v>
+      </c>
+      <c r="M29" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="4">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="M30" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.2422</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.2422</v>
+      </c>
+      <c r="N31" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>4.3E-3</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="4">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J32" s="4">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="K32" s="4">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.2407</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.2407</v>
+      </c>
+      <c r="O32" s="4">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="P32" s="4">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="4">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="P33" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="R33" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="4">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M34" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L35" s="4">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="N35" s="4">
+        <v>9.64E-2</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="R35" s="4">
+        <v>9.64E-2</v>
+      </c>
+      <c r="S35" s="4">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="T35" s="4">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="U35" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M36" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.1033</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.2203</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0.2203</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0.1033</v>
+      </c>
+      <c r="T36" s="4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="U36" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V36" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>16</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="N37" s="4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O37" s="4">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="U37" s="4">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="V37" s="4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="W37" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="4">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P38" s="4">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="V38" s="4">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="W38" s="4">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O39" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0.1162</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0.1162</v>
+      </c>
+      <c r="W39" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4">
+        <v>19</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="O40" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P40" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="R40" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="U40" s="4">
+        <v>0.2296</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="W40" s="4">
+        <v>0.19070000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="4">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4">
+        <v>20</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="P41" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="S41" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0.2296</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0.38519999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="4">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>21</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="R42" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="T42" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0.61480000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FE08A-9F4D-7B40-805C-2BB0424F64DC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1128,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7F6EB4-5D4F-BC45-969E-AE3CAB6A8489}">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1494,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D070E12-05E4-2C43-8D2E-82B50EB451CB}">
   <dimension ref="A1:BE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
@@ -4068,7 +6079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24068335-042B-E442-8782-1B577C7FB2EE}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -6829,6 +8840,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279A89D1-3496-6449-8C50-A62BE3DA5D2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49ACC92-2BAC-754A-8430-EFA2D58A0CDA}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -7111,12 +9134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF93CEC-D134-004C-9E64-A998B520E182}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10165,11 +12188,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10BEDB8-1C19-894F-AD09-E48EE3F07014}">
   <dimension ref="A1:DS108"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -29731,7 +31754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917D4A9B-970E-C542-9F8F-DF18BFDE4724}">
   <dimension ref="A1:Y246"/>
   <sheetViews>
@@ -41095,2014 +43118,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25C60F-7F84-6C48-8447-43A4AE21E2B1}">
-  <dimension ref="A1:W42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.99696820024555399</v>
-      </c>
-      <c r="D2" s="18">
-        <v>3.0317997544458963E-3</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18">
-        <v>1.3806249742478682E-2</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.97238750051504264</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1.3806249723033459E-2</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1.9445223209402229E-11</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1.7038104137577752E-8</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3.2906405296987642E-2</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.93418715532981644</v>
-      </c>
-      <c r="F4" s="18">
-        <v>3.2906405296987629E-2</v>
-      </c>
-      <c r="G4" s="18">
-        <v>1.703810414976914E-8</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1.4293123082035601E-15</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1.0783561449485444E-6</v>
-      </c>
-      <c r="E5" s="18">
-        <v>5.7122751520844117E-2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.88575234024601901</v>
-      </c>
-      <c r="G5" s="18">
-        <v>5.7122751520844117E-2</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1.0783561449345669E-6</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1.7414966004332085E-22</v>
-      </c>
-      <c r="D6" s="18">
-        <v>2.2895550578474101E-12</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1.6563697422036382E-5</v>
-      </c>
-      <c r="F6" s="18">
-        <v>8.3222467499376673E-2</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.83352193760182347</v>
-      </c>
-      <c r="H6" s="18">
-        <v>8.3222467499376673E-2</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1.6563697422089518E-5</v>
-      </c>
-      <c r="J6" s="18">
-        <v>2.2895019213819978E-12</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="18">
-        <v>7.9187390152442501E-29</v>
-      </c>
-      <c r="D7" s="18">
-        <v>3.4331362003500236E-18</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3.7519453381043917E-10</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1.1079032809813635E-4</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.10904759415277265</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.78168323028786935</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.10904759415277265</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1.107903280981315E-4</v>
-      </c>
-      <c r="K7" s="18">
-        <v>3.7519454210155345E-10</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1.6300596910444192E-34</v>
-      </c>
-      <c r="D8" s="18">
-        <v>9.4520657596956716E-24</v>
-      </c>
-      <c r="E8" s="18">
-        <v>4.2076735574279815E-15</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1.4808271057363774E-8</v>
-      </c>
-      <c r="G8" s="18">
-        <v>4.401581642135076E-4</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.13333150336982325</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.73245633958650203</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.13333165385556311</v>
-      </c>
-      <c r="K8" s="5">
-        <v>4.4016154260895224E-4</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1.4808576920266603E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1.4197252835086471E-39</v>
-      </c>
-      <c r="D9" s="18">
-        <v>6.6985971188061639E-29</v>
-      </c>
-      <c r="E9" s="18">
-        <v>5.5800559966529293E-20</v>
-      </c>
-      <c r="F9" s="18">
-        <v>8.3314483580522647E-13</v>
-      </c>
-      <c r="G9" s="18">
-        <v>2.29405294026917E-7</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1.2401887785961413E-3</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.15535344822380437</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.68681225144890989</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.15535344822380437</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1.240426051740684E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="18">
-        <v>4.5096179253662556E-44</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1.3173304091861695E-33</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1.2850755899224239E-24</v>
-      </c>
-      <c r="F10" s="18">
-        <v>4.2232365069290137E-17</v>
-      </c>
-      <c r="G10" s="18">
-        <v>4.7452560992948221E-11</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1.8739030122003168E-6</v>
-      </c>
-      <c r="I10" s="5">
-        <v>2.7587661774380878E-3</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.17472798018746982</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.64502275931685227</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.17748862034157387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18">
-        <v>4.4416417156480672E-48</v>
-      </c>
-      <c r="D11" s="18">
-        <v>6.9426832049025709E-38</v>
-      </c>
-      <c r="E11" s="18">
-        <v>5.9634886608778509E-29</v>
-      </c>
-      <c r="F11" s="18">
-        <v>2.8305109681876611E-21</v>
-      </c>
-      <c r="G11" s="18">
-        <v>7.4879711790214834E-15</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1.1201308022964087E-9</v>
-      </c>
-      <c r="I11" s="5">
-        <v>9.7304269226302925E-6</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5.1851862693219619E-3</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.19130423882354775</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.8035008433600439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="4">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="4">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.8276</v>
-      </c>
-      <c r="F24" s="4">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="4">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.1331</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.7329</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.1331</v>
-      </c>
-      <c r="H25" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="4">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.1724</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.6502</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.1724</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="4">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.2019</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.2019</v>
-      </c>
-      <c r="J27" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0</v>
-      </c>
-      <c r="S27" s="4">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4">
-        <v>0</v>
-      </c>
-      <c r="V27" s="4">
-        <v>0</v>
-      </c>
-      <c r="W27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="4">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.22209999999999999</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.22209999999999999</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="L28" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="4">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="H29" s="4">
-        <v>2.76E-2</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.23430000000000001</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.47460000000000002</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.23430000000000001</v>
-      </c>
-      <c r="L29" s="4">
-        <v>2.76E-2</v>
-      </c>
-      <c r="M29" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4">
-        <v>0</v>
-      </c>
-      <c r="V29" s="4">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="4">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="I30" s="4">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="M30" s="4">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="N30" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="4">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="I31" s="4">
-        <v>4.3E-3</v>
-      </c>
-      <c r="J31" s="4">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.2422</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0.39910000000000001</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0.2422</v>
-      </c>
-      <c r="N31" s="4">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="O31" s="4">
-        <v>4.3E-3</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="4">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4">
-        <v>11</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J32" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="K32" s="4">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0.2407</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.36930000000000002</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0.2407</v>
-      </c>
-      <c r="O32" s="4">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="P32" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="4">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="L33" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0.34350000000000003</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="P33" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="R33" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4">
-        <v>0</v>
-      </c>
-      <c r="V33" s="4">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="4">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1.8E-3</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="M34" s="4">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1.8E-3</v>
-      </c>
-      <c r="T34" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="U34" s="4">
-        <v>0</v>
-      </c>
-      <c r="V34" s="4">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="4">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4">
-        <v>14</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="L35" s="4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="M35" s="4">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="N35" s="4">
-        <v>9.64E-2</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0.22650000000000001</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0.30109999999999998</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0.22650000000000001</v>
-      </c>
-      <c r="R35" s="4">
-        <v>9.64E-2</v>
-      </c>
-      <c r="S35" s="4">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="T35" s="4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="U35" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="V35" s="4">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" s="4">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>15</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="M36" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N36" s="4">
-        <v>2.92E-2</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0.1033</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0.2203</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>0.28349999999999997</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0.2203</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0.1033</v>
-      </c>
-      <c r="T36" s="4">
-        <v>2.92E-2</v>
-      </c>
-      <c r="U36" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V36" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="W36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" s="4">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4">
-        <v>16</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="M37" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="N37" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="O37" s="4">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0.26779999999999998</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="T37" s="4">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="U37" s="4">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="V37" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="W37" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="4">
-        <v>3</v>
-      </c>
-      <c r="B38" s="4">
-        <v>17</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="N38" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="O38" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P38" s="4">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>0.113</v>
-      </c>
-      <c r="R38" s="4">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0.25380000000000003</v>
-      </c>
-      <c r="T38" s="4">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="U38" s="4">
-        <v>0.113</v>
-      </c>
-      <c r="V38" s="4">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="W38" s="4">
-        <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="4">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4">
-        <v>18</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O39" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="R39" s="4">
-        <v>0.1162</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="T39" s="4">
-        <v>0.24110000000000001</v>
-      </c>
-      <c r="U39" s="4">
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="V39" s="4">
-        <v>0.1162</v>
-      </c>
-      <c r="W39" s="4">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="4">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4">
-        <v>19</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="O40" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="P40" s="4">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="R40" s="4">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="T40" s="4">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="U40" s="4">
-        <v>0.2296</v>
-      </c>
-      <c r="V40" s="4">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="W40" s="4">
-        <v>0.19070000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="4">
-        <v>3</v>
-      </c>
-      <c r="B41" s="4">
-        <v>20</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="P41" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="R41" s="4">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="S41" s="4">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="T41" s="4">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="U41" s="4">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="V41" s="4">
-        <v>0.2296</v>
-      </c>
-      <c r="W41" s="4">
-        <v>0.38519999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="4">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>21</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="R42" s="4">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="T42" s="4">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="U42" s="4">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="V42" s="4">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="W42" s="4">
-        <v>0.61480000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GOA/GOA_2018_SS.xlsx
+++ b/GOA/GOA_2018_SS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\RceattleRuns\GOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3639A9A-01E0-2D42-AE21-B96F4E18CC8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="6" xr2:uid="{075EC1A9-A118-934F-9672-DCD5B7DE9E6F}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25035" windowHeight="13920" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="8" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="alk" sheetId="10" r:id="rId11"/>
     <sheet name="pmature" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -599,13 +598,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -704,7 +703,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DB88A080-57DC-914A-90FD-9A4EFCB172E4}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,19 +1014,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C57EAA-88F4-1949-8FF7-C14FB8E1F70F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1051,7 +1050,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>64</v>
       </c>
@@ -1061,7 +1060,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>65</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>66300000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1116,19 +1115,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25C60F-7F84-6C48-8447-43A4AE21E2B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>1.4808576920266603E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>1.240426051740684E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>0.17748862034157387</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1579,57 +1578,57 @@
         <v>0.8035008433600439</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>3</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>3</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>0.19070000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>0.38519999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -3126,30 +3125,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FE08A-9F4D-7B40-805C-2BB0424F64DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7F6EB4-5D4F-BC45-969E-AE3CAB6A8489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3262,7 +3261,7 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>0.99999389999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3401,21 +3400,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3B8E63-BAA6-3747-B823-8A3721B46933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -3502,19 +3501,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D070E12-05E4-2C43-8D2E-82B50EB451CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE107"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3561,7 +3560,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3585,7 +3584,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3609,7 +3608,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3633,7 +3632,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -3657,7 +3656,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3682,7 +3681,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -3752,7 +3751,7 @@
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -3776,7 +3775,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3800,7 +3799,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3824,7 +3823,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3847,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -3872,7 +3871,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +3895,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3920,7 +3919,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -3944,7 +3943,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -3968,7 +3967,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3992,7 +3991,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -4016,7 +4015,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -4040,7 +4039,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -4064,7 +4063,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -4088,7 +4087,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -4112,7 +4111,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -4136,7 +4135,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -4160,7 +4159,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -4184,7 +4183,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -4208,7 +4207,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -4232,7 +4231,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
@@ -4256,7 +4255,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -4280,7 +4279,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -4304,7 +4303,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -4328,7 +4327,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -4352,7 +4351,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -4399,7 +4398,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -4423,7 +4422,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -4447,7 +4446,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -4471,7 +4470,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
@@ -4495,7 +4494,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -4519,7 +4518,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -4543,7 +4542,7 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -4567,7 +4566,7 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -4591,7 +4590,7 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
@@ -4615,7 +4614,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>14</v>
       </c>
@@ -4639,7 +4638,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -4663,7 +4662,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
@@ -4687,7 +4686,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>14</v>
       </c>
@@ -4711,7 +4710,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -4735,7 +4734,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
@@ -4759,7 +4758,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>75</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>75</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>75</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>75</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>75</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>75</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>75</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>75</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>75</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>75</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>75</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>75</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>75</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>75</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>75</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>75</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>75</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>75</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>75</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>75</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>75</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>75</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>75</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>75</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>75</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>75</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>75</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>75</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>75</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>75</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>75</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>75</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>75</v>
       </c>
@@ -6076,19 +6075,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24068335-042B-E442-8782-1B577C7FB2EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>1.1065006915629294E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>9.2112211053172969E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>1.2013048022799219E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -6388,7 +6387,7 @@
         <v>4.4542915068502172E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>1.313402374080231E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>3.189862756211137E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>2.9519951520086255E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>2.001291231951511E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>1.7632562389469763E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>1.0503779718670123E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>8.901629272792767E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>3.6920969607559952E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>7.7273924677227837E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>2.6412267763102938E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>3.8496275752346418E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>0.11552774452494123</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>0.10442436352561066</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>5.22968308194676E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>8.3649336338689123E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>8.6019077774007316E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>0.11954918723483388</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>0.11605031534618783</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -7338,7 +7337,7 @@
         <v>0.13714008604556513</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>0.14349058782784049</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>9.3913395665416011E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>4.8297805466515145E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>3.2679056806312841E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>1.4105233046925745E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>5.3170661504486211E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>7.708680150607718E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>1.3279848723031149E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>1.1224132455363047E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>3.0684140668551952E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>4.3864428648492222E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>2.3203574083445262E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>1.2249039478491991E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>9.1914619931703044E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>2.2438363260626461E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>2.4840961887824555E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>1.7001442819160772E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>1.0781827502541882E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
@@ -8288,7 +8287,7 @@
         <v>1.1504881945879065E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>74</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>74</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>74</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>74</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>74</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>74</v>
       </c>
@@ -8372,7 +8371,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>74</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>74</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>74</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>74</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>74</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>74</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>74</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>74</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>74</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>74</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>74</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>74</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>74</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>74</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>74</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>74</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>74</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>74</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>74</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>74</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>74</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>74</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>74</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>74</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>74</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>74</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>74</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>74</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>74</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>74</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>74</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>74</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>74</v>
       </c>
@@ -8840,31 +8839,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279A89D1-3496-6449-8C50-A62BE3DA5D2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49ACC92-2BAC-754A-8430-EFA2D58A0CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>-0.16251889999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -9135,19 +9134,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF93CEC-D134-004C-9E64-A998B520E182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>0.20550199999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>0.191361</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>0.21260999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>0.111689</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>0.17835899999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -9308,7 +9307,7 @@
         <v>0.12862299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>0.20558100000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>0.173619</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>0.28065099999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>0.175873</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>0.15088299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>0.11947199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>0.116207</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>0.13903299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>0.14063800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>8.6707500000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -9561,7 +9560,7 @@
         <v>0.11415599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>9.4373600000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -9607,7 +9606,7 @@
         <v>0.100049</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>0.141068</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>0.16905000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>0.115331</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>0.113426</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>0.14549799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>0.18118999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>0.17019999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>0.15024699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>0.117743</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>0.21374799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>0.19658</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>0.13963300000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>0.22826399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -9929,7 +9928,7 @@
         <v>0.13794699999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>0.13837099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>0.14147100000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>0.148198</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>0.162217</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>0.14336599999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>0.159525</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>0.17205100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>0.10105699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>0.121091</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
@@ -10251,7 +10250,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>41</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>41</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>41</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>41</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>41</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>41</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>41</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>41</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>41</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>41</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>41</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>41</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>42</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>0.11702665064588846</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>42</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>0.15902369917376172</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>42</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>0.14598472476251437</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
@@ -10803,7 +10802,7 @@
         <v>0.38377936526004713</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>42</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>0.29765934120245485</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>0.1201167497000875</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>42</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>0.15366059090831735</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>42</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>0.13851995813807683</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>42</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>0.15245328583382881</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>42</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>0.14576403250106171</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>42</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>0.21086392026802434</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>42</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>0.16016331912790172</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>42</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>0.43639305844832282</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>43</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>0.33930140605289877</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>43</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>0.21265509703399516</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>43</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>0.19966868830154649</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>43</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>0.39554304062496709</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>43</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>0.20540281715503217</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>43</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>0.22613950385061393</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>43</v>
       </c>
@@ -11171,7 +11170,7 @@
         <v>0.2192979492035674</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>43</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>0.2592444583053724</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>43</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>0.34098987634913863</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>43</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>0.25149319884814697</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>43</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>0.2351613174256493</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>43</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>0.2365971230998265</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>43</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>0.24919776459299312</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>43</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>0.24628320787047489</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>43</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>0.21292837303199744</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>43</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>0.21589174406274197</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>43</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>0.27127811670102003</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>43</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>0.25843248226410453</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>43</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>0.21780623842710883</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>0.21849084057177798</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>43</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>0.20277940362909555</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>43</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>0.18344959857770379</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>43</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>0.28007729136102238</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>43</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>0.18866820266679868</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>43</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>0.21444988918007712</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -11608,7 +11607,7 @@
         <v>0.20251590251103357</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>0.23548569120792948</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>0.27965917487767566</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>43</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>0.33028113482572286</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>43</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>0.21989846334416019</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>0.40093200404580787</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>40</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>40</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>40</v>
       </c>
@@ -11792,7 +11791,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>73</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>0.14120768985469376</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>73</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>0.23006779009770556</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>73</v>
       </c>
@@ -11861,7 +11860,7 @@
         <v>6.4024491667528313E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>8.0155818282134569E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -11907,7 +11906,7 @@
         <v>0.12539475885038462</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>6.5194820762578334E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>73</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>7.001083169882022E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>73</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>7.8698190628538112E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>73</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>0.10999992601233621</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>0.13207288154531863</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>6.6211946869581609E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>73</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>7.7387696584160837E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>73</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>8.9954513788231369E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>0.10289966312196158</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>73</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>0.10098858232696903</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>73</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>8.0775947037743379E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>73</v>
       </c>
@@ -12189,19 +12188,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10BEDB8-1C19-894F-AD09-E48EE3F07014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS108"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -12572,12 +12571,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:123">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -12622,12 +12621,12 @@
         <v>7.2315112507869206E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:123">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -12672,12 +12671,12 @@
         <v>4.8062965775846407E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:123">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -12722,12 +12721,12 @@
         <v>8.9021627538846224E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:123">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -12772,12 +12771,12 @@
         <v>0.23255609306345834</v>
       </c>
     </row>
-    <row r="6" spans="1:123">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -12822,12 +12821,12 @@
         <v>1.2654839739305174E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:123">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -12872,12 +12871,12 @@
         <v>2.5986033250396522E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:123">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -12922,12 +12921,12 @@
         <v>2.5160058948069681E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:123">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -12972,12 +12971,12 @@
         <v>1.4849842817396123E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:123">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -13022,12 +13021,12 @@
         <v>6.135115451221626E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:123">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -13072,12 +13071,12 @@
         <v>3.8481810472327918E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:123">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -13122,12 +13121,12 @@
         <v>1.2264681328704903E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:123">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -13172,12 +13171,12 @@
         <v>2.4609484772389841E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:123">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -13222,12 +13221,12 @@
         <v>1.8654605347796786E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:123">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -13272,12 +13271,12 @@
         <v>6.9182985502200547E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:123">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -13322,12 +13321,12 @@
         <v>5.1124604915071238E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -13372,12 +13371,12 @@
         <v>0.14560496679871468</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -13422,12 +13421,12 @@
         <v>4.6034577204338574E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -13472,12 +13471,12 @@
         <v>4.9264384513698516E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -13522,12 +13521,12 @@
         <v>1.3101506744054367E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -13572,12 +13571,12 @@
         <v>5.1511368056881793E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -13622,12 +13621,12 @@
         <v>6.2818790559157997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -13672,12 +13671,12 @@
         <v>1.337610500163534E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -13722,12 +13721,12 @@
         <v>1.3031182550685269E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -13772,12 +13771,12 @@
         <v>1.1381047066878248E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -13822,12 +13821,12 @@
         <v>2.5155504727222117E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -13872,12 +13871,12 @@
         <v>1.6257936980868886E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -13922,12 +13921,12 @@
         <v>8.7430794920168205E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -13972,12 +13971,12 @@
         <v>5.9841764698429943E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -14022,12 +14021,12 @@
         <v>7.476253612420534E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -14072,12 +14071,12 @@
         <v>2.617080706604373E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -14122,12 +14121,12 @@
         <v>3.0706858546544168E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -14172,12 +14171,12 @@
         <v>2.9556469259402755E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -14222,12 +14221,12 @@
         <v>1.7471228919353279E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -14272,12 +14271,12 @@
         <v>4.3094046979857699E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -14322,12 +14321,12 @@
         <v>1.1456748094608284E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -14372,12 +14371,12 @@
         <v>1.0058279538178259E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -14422,12 +14421,12 @@
         <v>4.9416645124801355E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -14472,12 +14471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -14522,12 +14521,12 @@
         <v>7.9240000000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -14572,12 +14571,12 @@
         <v>0.11385000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -14622,12 +14621,12 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -14672,12 +14671,12 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -14722,12 +14721,12 @@
         <v>1.762E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -14772,12 +14771,12 @@
         <v>0.17163999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -14822,12 +14821,12 @@
         <v>0.11552999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -14872,12 +14871,12 @@
         <v>0.20430999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -14922,12 +14921,12 @@
         <v>0.24349442379182157</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -14972,12 +14971,12 @@
         <v>5.2044609665427503E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -15022,12 +15021,12 @@
         <v>8.4175084175084181E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -15072,12 +15071,12 @@
         <v>4.9069373942470386E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -15122,12 +15121,12 @@
         <v>6.030150753768844E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -15172,12 +15171,12 @@
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -15222,12 +15221,12 @@
         <v>5.4867256637168141E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -15272,12 +15271,12 @@
         <v>5.2364864864864871E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -15322,12 +15321,12 @@
         <v>1.5050167224080268E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B57" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -15372,12 +15371,12 @@
         <v>1.220138466143036E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -15422,12 +15421,12 @@
         <v>2.5847380934020093E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
@@ -15472,7 +15471,7 @@
         <v>3.958014030218985E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -15489,7 +15488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -15523,7 +15522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -15557,12 +15556,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:122">
+    <row r="65" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -15925,12 +15924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:122">
+    <row r="66" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -16293,12 +16292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:122">
+    <row r="67" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -16661,12 +16660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:122">
+    <row r="68" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -17029,12 +17028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:122">
+    <row r="69" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -17397,12 +17396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:122">
+    <row r="70" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -17765,12 +17764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:122">
+    <row r="71" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -18133,12 +18132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:122">
+    <row r="72" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -18501,12 +18500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:122">
+    <row r="73" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -18869,12 +18868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:122">
+    <row r="74" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -19237,12 +19236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:122">
+    <row r="75" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -19605,12 +19604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:122">
+    <row r="76" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -19973,12 +19972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:122">
+    <row r="77" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -20341,12 +20340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:122">
+    <row r="78" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -20709,12 +20708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:122">
+    <row r="79" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -21077,12 +21076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:122">
+    <row r="80" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -21445,12 +21444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:122">
+    <row r="81" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -21813,12 +21812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:122">
+    <row r="82" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -22181,12 +22180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:122">
+    <row r="83" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>77</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -22549,12 +22548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:122">
+    <row r="84" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -22917,12 +22916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:122">
+    <row r="85" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -23285,12 +23284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:122">
+    <row r="86" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -23653,12 +23652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:122">
+    <row r="87" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>77</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -24021,12 +24020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:122">
+    <row r="88" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>77</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -24389,12 +24388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:122">
+    <row r="89" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>77</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -24757,12 +24756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:122">
+    <row r="90" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>77</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -25125,12 +25124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:122">
+    <row r="91" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -25493,12 +25492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:122">
+    <row r="92" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -25861,12 +25860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:122">
+    <row r="93" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>77</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -26229,12 +26228,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:122">
+    <row r="94" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>77</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -26597,12 +26596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:122">
+    <row r="95" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>77</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -26965,12 +26964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:122">
+    <row r="96" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>77</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -27333,12 +27332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:122">
+    <row r="97" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>77</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -27701,12 +27700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:122">
+    <row r="98" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -28069,12 +28068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:122">
+    <row r="99" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -28437,12 +28436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:122">
+    <row r="100" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>77</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -28805,12 +28804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:122">
+    <row r="101" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>77</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -29173,12 +29172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:122">
+    <row r="102" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>77</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -29541,12 +29540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:122">
+    <row r="103" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>77</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -29909,12 +29908,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:122">
+    <row r="104" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>77</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -30277,12 +30276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:122">
+    <row r="105" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>77</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -30645,12 +30644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:122">
+    <row r="106" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>77</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -31013,12 +31012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:122">
+    <row r="107" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>77</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -31381,12 +31380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:122">
+    <row r="108" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>77</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -31755,20 +31754,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917D4A9B-970E-C542-9F8F-DF18BFDE4724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y246"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -31845,7 +31844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -31889,7 +31888,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -31933,7 +31932,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -31977,7 +31976,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
@@ -32021,7 +32020,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
@@ -32065,7 +32064,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
@@ -32109,7 +32108,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
@@ -32153,7 +32152,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -32197,7 +32196,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
@@ -32241,7 +32240,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -32285,7 +32284,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
@@ -32329,7 +32328,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -32373,7 +32372,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -32417,7 +32416,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
@@ -32461,7 +32460,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
@@ -32505,7 +32504,7 @@
         <v>1.1963470617467755</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -32549,7 +32548,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -32593,7 +32592,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -32637,7 +32636,7 @@
         <v>1.2635392639650802</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -32681,7 +32680,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -32725,7 +32724,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -32769,7 +32768,7 @@
         <v>1.4716211900661997</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -32813,7 +32812,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
@@ -32857,7 +32856,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -32901,7 +32900,7 @@
         <v>1.4122806730011275</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>69</v>
       </c>
@@ -32945,7 +32944,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -32989,7 +32988,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
@@ -33033,7 +33032,7 @@
         <v>1.4304992241100121</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -33077,7 +33076,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
@@ -33121,7 +33120,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
@@ -33165,7 +33164,7 @@
         <v>1.2848085989331155</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -33209,7 +33208,7 @@
         <v>1.3829591690336882</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
@@ -33253,7 +33252,7 @@
         <v>1.4811097391342609</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -33297,7 +33296,7 @@
         <v>1.5022116803039225</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -33341,7 +33340,7 @@
         <v>1.5233136214735843</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -33385,7 +33384,7 @@
         <v>1.5249090739551419</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -33429,7 +33428,7 @@
         <v>1.5265045264366994</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
@@ -33473,7 +33472,7 @@
         <v>1.631598150824066</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -33517,7 +33516,7 @@
         <v>1.7366917752114324</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -33561,7 +33560,7 @@
         <v>1.8783903210742114</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
@@ -33605,7 +33604,7 @@
         <v>2.0200888669369905</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
@@ -33649,7 +33648,7 @@
         <v>2.0285176840558297</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
@@ -33693,7 +33692,7 @@
         <v>2.0369465011746692</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
@@ -33737,7 +33736,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
@@ -33781,7 +33780,7 @@
         <v>2.0365588967617909</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>69</v>
       </c>
@@ -33825,7 +33824,7 @@
         <v>1.7806215180992444</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>69</v>
       </c>
@@ -33869,7 +33868,7 @@
         <v>1.5246841394366981</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>69</v>
       </c>
@@ -33913,7 +33912,7 @@
         <v>1.5142359024437635</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -33957,7 +33956,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>69</v>
       </c>
@@ -34001,7 +34000,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -34045,7 +34044,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
@@ -34089,7 +34088,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>70</v>
       </c>
@@ -34133,7 +34132,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>70</v>
       </c>
@@ -34177,7 +34176,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>70</v>
       </c>
@@ -34221,7 +34220,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>70</v>
       </c>
@@ -34265,7 +34264,7 @@
         <v>1.1417827182692899</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>70</v>
       </c>
@@ -34309,7 +34308,7 @@
         <v>0.84349157050157897</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>70</v>
       </c>
@@ -34353,7 +34352,7 @@
         <v>0.95522637649445075</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>70</v>
       </c>
@@ -34397,7 +34396,7 @@
         <v>0.92884731265662002</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
@@ -34441,7 +34440,7 @@
         <v>1.1109577059379809</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>70</v>
       </c>
@@ -34485,7 +34484,7 @@
         <v>1.0316818720472489</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>70</v>
       </c>
@@ -34529,7 +34528,7 @@
         <v>1.2109337852158604</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>70</v>
       </c>
@@ -34573,7 +34572,7 @@
         <v>1.0510326305510056</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
@@ -34617,7 +34616,7 @@
         <v>1.0775804904645143</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
@@ -34661,7 +34660,7 @@
         <v>1.1285377612320533</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>70</v>
       </c>
@@ -34705,7 +34704,7 @@
         <v>1.1562170698249306</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
@@ -34749,7 +34748,7 @@
         <v>1.07288081215685</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -34793,7 +34792,7 @@
         <v>1.1020752040903261</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
@@ -34837,7 +34836,7 @@
         <v>1.4103997126924603</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
@@ -34881,7 +34880,7 @@
         <v>1.4585782931889968</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -34925,7 +34924,7 @@
         <v>1.7629194732845674</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -34969,7 +34968,7 @@
         <v>1.5424396294804019</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>70</v>
       </c>
@@ -35013,7 +35012,7 @@
         <v>1.4172927729759288</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>70</v>
       </c>
@@ -35057,7 +35056,7 @@
         <v>1.3561618858979128</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
@@ -35101,7 +35100,7 @@
         <v>1.4326420237663553</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>70</v>
       </c>
@@ -35145,7 +35144,7 @@
         <v>1.4400238492976036</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
@@ -35189,7 +35188,7 @@
         <v>1.4096971821716553</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>70</v>
       </c>
@@ -35233,7 +35232,7 @@
         <v>1.3580438611106203</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>70</v>
       </c>
@@ -35277,7 +35276,7 @@
         <v>1.4093692426702189</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>70</v>
       </c>
@@ -35321,7 +35320,7 @@
         <v>1.3783641793409458</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>70</v>
       </c>
@@ -35365,7 +35364,7 @@
         <v>1.6628765783282369</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>70</v>
       </c>
@@ -35409,7 +35408,7 @@
         <v>1.7237336373411558</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>70</v>
       </c>
@@ -35453,7 +35452,7 @@
         <v>1.5221009055153534</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>70</v>
       </c>
@@ -35497,7 +35496,7 @@
         <v>1.6996918224345299</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>70</v>
       </c>
@@ -35541,7 +35540,7 @@
         <v>1.7469861739531569</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>70</v>
       </c>
@@ -35585,7 +35584,7 @@
         <v>1.4847174222093895</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>70</v>
       </c>
@@ -35629,7 +35628,7 @@
         <v>1.6525516232426811</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>70</v>
       </c>
@@ -35673,7 +35672,7 @@
         <v>1.9403560923461782</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>70</v>
       </c>
@@ -35717,7 +35716,7 @@
         <v>2.2040047715090361</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
@@ -35761,7 +35760,7 @@
         <v>2.2084522747077218</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>70</v>
       </c>
@@ -35805,7 +35804,7 @@
         <v>2.1907521048446967</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>70</v>
       </c>
@@ -35849,7 +35848,7 @@
         <v>1.9130436746408841</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>70</v>
       </c>
@@ -35893,7 +35892,7 @@
         <v>2.2367848502574175</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>70</v>
       </c>
@@ -35937,7 +35936,7 @@
         <v>2.1667967041041494</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>70</v>
       </c>
@@ -35981,7 +35980,7 @@
         <v>1.8257259532095558</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>70</v>
       </c>
@@ -36025,7 +36024,7 @@
         <v>1.783245440610048</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>70</v>
       </c>
@@ -36069,7 +36068,7 @@
         <v>1.178973029076573</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>70</v>
       </c>
@@ -36113,7 +36112,7 @@
         <v>1.4031207768560119</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>70</v>
       </c>
@@ -36157,7 +36156,7 @@
         <v>1.508993</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>71</v>
       </c>
@@ -36201,7 +36200,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>71</v>
       </c>
@@ -36245,7 +36244,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>71</v>
       </c>
@@ -36289,7 +36288,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>71</v>
       </c>
@@ -36333,7 +36332,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>71</v>
       </c>
@@ -36377,7 +36376,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>71</v>
       </c>
@@ -36421,7 +36420,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>71</v>
       </c>
@@ -36465,7 +36464,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>71</v>
       </c>
@@ -36509,7 +36508,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>71</v>
       </c>
@@ -36553,7 +36552,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>71</v>
       </c>
@@ -36597,7 +36596,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>71</v>
       </c>
@@ -36641,7 +36640,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>71</v>
       </c>
@@ -36685,7 +36684,7 @@
         <v>0.76384218302016826</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>71</v>
       </c>
@@ -36729,7 +36728,7 @@
         <v>0.9107124545361569</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>71</v>
       </c>
@@ -36773,7 +36772,7 @@
         <v>1.0575827260521455</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>71</v>
       </c>
@@ -36817,7 +36816,7 @@
         <v>1.005671466852389</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>71</v>
       </c>
@@ -36861,7 +36860,7 @@
         <v>1.1565480030081621</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>71</v>
       </c>
@@ -36905,7 +36904,7 @@
         <v>1.0662231375458915</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>71</v>
       </c>
@@ -36949,7 +36948,7 @@
         <v>1.1738008393716481</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>71</v>
       </c>
@@ -36993,7 +36992,7 @@
         <v>1.2813785411974048</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>71</v>
       </c>
@@ -37037,7 +37036,7 @@
         <v>1.2209272531133084</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>71</v>
       </c>
@@ -37081,7 +37080,7 @@
         <v>1.3636399050302852</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>71</v>
       </c>
@@ -37125,7 +37124,7 @@
         <v>1.5214632853588541</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>71</v>
       </c>
@@ -37169,7 +37168,7 @@
         <v>1.304152124385495</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>71</v>
       </c>
@@ -37213,7 +37212,7 @@
         <v>1.3321028810447899</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>71</v>
       </c>
@@ -37257,7 +37256,7 @@
         <v>1.4313456970653544</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>71</v>
       </c>
@@ -37301,7 +37300,7 @@
         <v>1.351810784160175</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>71</v>
       </c>
@@ -37345,7 +37344,7 @@
         <v>1.373530451699529</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>71</v>
       </c>
@@ -37389,7 +37388,7 @@
         <v>1.4243696456536084</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>71</v>
       </c>
@@ -37433,7 +37432,7 @@
         <v>1.3624920017082001</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>71</v>
       </c>
@@ -37477,7 +37476,7 @@
         <v>1.4567194580708152</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>71</v>
       </c>
@@ -37521,7 +37520,7 @@
         <v>1.5509469144334302</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>71</v>
       </c>
@@ -37565,7 +37564,7 @@
         <v>1.7391980526536135</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>71</v>
       </c>
@@ -37609,7 +37608,7 @@
         <v>1.7652628827771184</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>71</v>
       </c>
@@ -37653,7 +37652,7 @@
         <v>1.5839424587460889</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>71</v>
       </c>
@@ -37697,7 +37696,7 @@
         <v>1.3112453252754619</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>71</v>
       </c>
@@ -37741,7 +37740,7 @@
         <v>1.8369958009295402</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>71</v>
       </c>
@@ -37785,7 +37784,7 @@
         <v>1.8843549707424296</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>71</v>
       </c>
@@ -37829,7 +37828,7 @@
         <v>1.8960533165270772</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>71</v>
       </c>
@@ -37873,7 +37872,7 @@
         <v>2.0135954886277774</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>71</v>
       </c>
@@ -37917,7 +37916,7 @@
         <v>2.0672421402448591</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -37961,7 +37960,7 @@
         <v>2.2269453639754642</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>71</v>
       </c>
@@ -38005,7 +38004,7 @@
         <v>2.0829074334243423</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>71</v>
       </c>
@@ -38049,7 +38048,7 @@
         <v>1.9388695028732206</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>71</v>
       </c>
@@ -38093,7 +38092,7 @@
         <v>2.2622696116514605</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>71</v>
       </c>
@@ -38137,7 +38136,7 @@
         <v>1.6663958075803715</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>71</v>
       </c>
@@ -38181,7 +38180,7 @@
         <v>1.6536599589719456</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>71</v>
       </c>
@@ -38225,7 +38224,7 @@
         <v>1.1780232658874208</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>71</v>
       </c>
@@ -38269,7 +38268,7 @@
         <v>1.3392193822187362</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>71</v>
       </c>
@@ -38313,7 +38312,7 @@
         <v>1.3392193822187362</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>43</v>
       </c>
@@ -38367,7 +38366,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>43</v>
       </c>
@@ -38421,7 +38420,7 @@
         <v>1.4716211900661997</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>43</v>
       </c>
@@ -38475,7 +38474,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>43</v>
       </c>
@@ -38529,7 +38528,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>43</v>
       </c>
@@ -38583,7 +38582,7 @@
         <v>1.4122806730011275</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -38637,7 +38636,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>43</v>
       </c>
@@ -38691,7 +38690,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>43</v>
       </c>
@@ -38745,7 +38744,7 @@
         <v>1.4304992241100121</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>43</v>
       </c>
@@ -38799,7 +38798,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>43</v>
       </c>
@@ -38853,7 +38852,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>43</v>
       </c>
@@ -38907,7 +38906,7 @@
         <v>1.2848085989331155</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>43</v>
       </c>
@@ -38961,7 +38960,7 @@
         <v>1.3829591690336882</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>43</v>
       </c>
@@ -39015,7 +39014,7 @@
         <v>1.4811097391342609</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>43</v>
       </c>
@@ -39069,7 +39068,7 @@
         <v>1.5022116803039225</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>43</v>
       </c>
@@ -39123,7 +39122,7 @@
         <v>1.5233136214735843</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>43</v>
       </c>
@@ -39177,7 +39176,7 @@
         <v>1.5249090739551419</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>43</v>
       </c>
@@ -39231,7 +39230,7 @@
         <v>1.5265045264366994</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>43</v>
       </c>
@@ -39285,7 +39284,7 @@
         <v>1.631598150824066</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>43</v>
       </c>
@@ -39339,7 +39338,7 @@
         <v>1.7366917752114324</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>43</v>
       </c>
@@ -39393,7 +39392,7 @@
         <v>1.8783903210742114</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>43</v>
       </c>
@@ -39447,7 +39446,7 @@
         <v>2.0200888669369905</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>43</v>
       </c>
@@ -39501,7 +39500,7 @@
         <v>2.0285176840558297</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>43</v>
       </c>
@@ -39555,7 +39554,7 @@
         <v>2.0369465011746692</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>43</v>
       </c>
@@ -39609,7 +39608,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>43</v>
       </c>
@@ -39663,7 +39662,7 @@
         <v>2.0365588967617909</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>43</v>
       </c>
@@ -39717,7 +39716,7 @@
         <v>1.7806215180992444</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>43</v>
       </c>
@@ -39771,7 +39770,7 @@
         <v>1.5246841394366981</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>43</v>
       </c>
@@ -39825,7 +39824,7 @@
         <v>1.5142359024437635</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>43</v>
       </c>
@@ -39879,7 +39878,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>43</v>
       </c>
@@ -39933,7 +39932,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>43</v>
       </c>
@@ -39987,7 +39986,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>43</v>
       </c>
@@ -40041,7 +40040,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>43</v>
       </c>
@@ -40095,7 +40094,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>43</v>
       </c>
@@ -40149,7 +40148,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>43</v>
       </c>
@@ -40203,7 +40202,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>43</v>
       </c>
@@ -40257,7 +40256,7 @@
         <v>1.1417827182692899</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>43</v>
       </c>
@@ -40311,7 +40310,7 @@
         <v>0.84349157050157897</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>43</v>
       </c>
@@ -40365,7 +40364,7 @@
         <v>0.95522637649445075</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>43</v>
       </c>
@@ -40419,7 +40418,7 @@
         <v>0.92884731265662002</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>43</v>
       </c>
@@ -40473,7 +40472,7 @@
         <v>1.1109577059379809</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>43</v>
       </c>
@@ -40527,7 +40526,7 @@
         <v>1.0316818720472489</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>43</v>
       </c>
@@ -40581,7 +40580,7 @@
         <v>1.2109337852158604</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>43</v>
       </c>
@@ -40635,7 +40634,7 @@
         <v>1.0510326305510056</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>43</v>
       </c>
@@ -40689,7 +40688,7 @@
         <v>1.0775804904645143</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>43</v>
       </c>
@@ -40743,7 +40742,7 @@
         <v>1.1285377612320533</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>43</v>
       </c>
@@ -40797,7 +40796,7 @@
         <v>1.1562170698249306</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>43</v>
       </c>
@@ -40851,7 +40850,7 @@
         <v>1.07288081215685</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>43</v>
       </c>
@@ -40905,7 +40904,7 @@
         <v>1.1020752040903261</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>43</v>
       </c>
@@ -40959,7 +40958,7 @@
         <v>1.4103997126924603</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>40</v>
       </c>
@@ -41003,7 +41002,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>40</v>
       </c>
@@ -41047,7 +41046,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>40</v>
       </c>
@@ -41091,7 +41090,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>40</v>
       </c>
@@ -41135,7 +41134,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>40</v>
       </c>
@@ -41179,7 +41178,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>40</v>
       </c>
@@ -41223,7 +41222,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>40</v>
       </c>
@@ -41267,7 +41266,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>40</v>
       </c>
@@ -41311,7 +41310,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>40</v>
       </c>
@@ -41355,7 +41354,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>40</v>
       </c>
@@ -41399,7 +41398,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>40</v>
       </c>
@@ -41443,7 +41442,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>40</v>
       </c>
@@ -41487,7 +41486,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>40</v>
       </c>
@@ -41531,7 +41530,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>40</v>
       </c>
@@ -41575,7 +41574,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>40</v>
       </c>
@@ -41619,7 +41618,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>40</v>
       </c>
@@ -41663,7 +41662,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>40</v>
       </c>
@@ -41707,7 +41706,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>40</v>
       </c>
@@ -41751,7 +41750,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>40</v>
       </c>
@@ -41795,7 +41794,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>40</v>
       </c>
@@ -41839,7 +41838,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>40</v>
       </c>
@@ -41883,7 +41882,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>40</v>
       </c>
@@ -41927,7 +41926,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>40</v>
       </c>
@@ -41971,7 +41970,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>40</v>
       </c>
@@ -42015,7 +42014,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>40</v>
       </c>
@@ -42059,7 +42058,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>40</v>
       </c>
@@ -42103,7 +42102,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>40</v>
       </c>
@@ -42147,7 +42146,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>40</v>
       </c>
@@ -42191,7 +42190,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>40</v>
       </c>
@@ -42235,7 +42234,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>40</v>
       </c>
@@ -42279,7 +42278,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>40</v>
       </c>
@@ -42323,7 +42322,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>40</v>
       </c>
@@ -42367,7 +42366,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>40</v>
       </c>
@@ -42411,7 +42410,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>40</v>
       </c>
@@ -42455,7 +42454,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>40</v>
       </c>
@@ -42499,7 +42498,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>40</v>
       </c>
@@ -42543,7 +42542,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>40</v>
       </c>
@@ -42587,7 +42586,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>40</v>
       </c>
@@ -42631,7 +42630,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>40</v>
       </c>
@@ -42675,7 +42674,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>40</v>
       </c>
@@ -42719,7 +42718,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>40</v>
       </c>
@@ -42763,7 +42762,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>40</v>
       </c>
@@ -42807,7 +42806,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>40</v>
       </c>
@@ -42851,7 +42850,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>40</v>
       </c>
@@ -42895,7 +42894,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>40</v>
       </c>
@@ -42939,7 +42938,7 @@
         <v>1.602231150614039</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>40</v>
       </c>
@@ -42983,7 +42982,7 @@
         <v>1.4214014459378284</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>40</v>
       </c>
@@ -43027,7 +43026,7 @@
         <v>1.2878939398655334</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>40</v>
       </c>
@@ -43071,7 +43070,7 @@
         <v>1.1543864337932384</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>40</v>
       </c>
